--- a/ml_doc/Transaction_Summary.xlsx
+++ b/ml_doc/Transaction_Summary.xlsx
@@ -54,7 +54,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> XXXX-XXXX-XXXX-7132</t>
+      <t xml:space="preserve"> 5142-2341-0893-7132</t>
     </r>
   </si>
   <si>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
